--- a/QueuingSystem/dlls/wj_led.xlsx
+++ b/QueuingSystem/dlls/wj_led.xlsx
@@ -308,19 +308,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,6 +347,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,21 +381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +696,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,57 +721,57 @@
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="8"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
@@ -779,65 +779,49 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8">
-        <v>1003</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1004</v>
-      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8">
-        <v>1004</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1005</v>
-      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8">
-        <v>1001</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1006</v>
-      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="10">
-        <v>1001</v>
-      </c>
-      <c r="F10" s="35">
-        <v>1007</v>
-      </c>
-      <c r="G10" s="36"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -865,6 +849,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -881,8 +867,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.75" bottom="0.196850393700787" header="0.3" footer="0.3"/>
